--- a/files/menus/green_mountain/breakfast_greenmountain.xlsx
+++ b/files/menus/green_mountain/breakfast_greenmountain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ajaxproto\files\menus\mtbenson_market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C5BF229-BF72-40E8-AFC0-43AD4E790381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4685F3AC-2ED5-4F7A-90B0-7F5DDF76D718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="2085" windowWidth="27405" windowHeight="14325" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="-28920" yWindow="6855" windowWidth="29040" windowHeight="15840" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Ingredients</t>
   </si>
@@ -53,43 +53,49 @@
     <t>nutritionLabel</t>
   </si>
   <si>
-    <t>Waffles</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
     <t>VEG</t>
   </si>
   <si>
-    <t>Flour, Egg, Oil, Water, Salt, Sugar, Baking Powder</t>
-  </si>
-  <si>
     <t>waffles</t>
   </si>
   <si>
-    <t>Breakfast Sandwich</t>
-  </si>
-  <si>
-    <t>English Muffin, Egg, Oil, Water, Salt, Sugar, Baking Powder</t>
-  </si>
-  <si>
     <t>Egg, Sausage</t>
   </si>
   <si>
-    <t>Tater tots</t>
-  </si>
-  <si>
-    <t>Potato, onion, oil, salt, spices.</t>
-  </si>
-  <si>
     <t>Potato</t>
   </si>
   <si>
     <t>VGN, GF, DF</t>
   </si>
   <si>
-    <t>tater tots</t>
+    <t>Classic Club</t>
+  </si>
+  <si>
+    <t>Turkey / Bacon / Cheddar Cheese / Lettuce / Tomato / Garlic Aioli</t>
+  </si>
+  <si>
+    <t>Turkey / Swiss Cheese / Roasted Onion / Tomato / Cucumber / Mixed Greens / Spicy Mayo</t>
+  </si>
+  <si>
+    <t>Falafel / Feta / Red Onion / Cucumber / Mixed Greens / Tomato / Tzatziki</t>
+  </si>
+  <si>
+    <t>Allergens</t>
+  </si>
+  <si>
+    <t>Wheat, sulphites, egg.</t>
+  </si>
+  <si>
+    <t>Turkey Swiss Wrap</t>
+  </si>
+  <si>
+    <t>Falafel</t>
+  </si>
+  <si>
+    <t>No known priority allergens</t>
   </si>
 </sst>
 </file>
@@ -131,8 +137,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -151,11 +160,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}" name="Table3" displayName="Table3" ref="A1:E5" totalsRowShown="0">
-  <autoFilter ref="A1:E5" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}" name="Table3" displayName="Table3" ref="A1:F5" totalsRowShown="0">
+  <autoFilter ref="A1:F5" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{AA44CCDF-F9E2-4FB6-9AED-85FE3A3C6008}" name="ItemName"/>
     <tableColumn id="2" xr3:uid="{9D7FC130-DF66-4465-8F0B-6015043C6AA1}" name="Ingredients"/>
+    <tableColumn id="7" xr3:uid="{364DC3EB-6DF2-4CD4-84D8-820702E66F1F}" name="Allergens"/>
     <tableColumn id="3" xr3:uid="{9F2485F9-EFCE-415F-9AF4-2B5A16080CD5}" name="LocalIngredients"/>
     <tableColumn id="4" xr3:uid="{11D88A0B-C840-4F23-81DF-C249BC9C7872}" name="Diet"/>
     <tableColumn id="5" xr3:uid="{378390CC-E66E-4719-939E-E825F4A2EB3E}" name="nutritionLabel"/>
@@ -461,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E4FEC9-4E15-443B-89A8-5C76E19963E8}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,11 +482,12 @@
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -484,58 +495,70 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/files/menus/green_mountain/breakfast_greenmountain.xlsx
+++ b/files/menus/green_mountain/breakfast_greenmountain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ajaxproto\files\menus\mtbenson_market\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\green_mountain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4685F3AC-2ED5-4F7A-90B0-7F5DDF76D718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA3FB2F-3100-4900-944C-36C7613809C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="6855" windowWidth="29040" windowHeight="15840" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="8475" yWindow="6840" windowWidth="24825" windowHeight="14220" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/files/menus/green_mountain/breakfast_greenmountain.xlsx
+++ b/files/menus/green_mountain/breakfast_greenmountain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollip\Documents\!!ProjectFiles\ezrab_feedbc\files\menus\green_mountain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA3FB2F-3100-4900-944C-36C7613809C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3A9655-477D-4409-AFAF-A1B90E039874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8475" yWindow="6840" windowWidth="24825" windowHeight="14220" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
+    <workbookView xWindow="9975" yWindow="1860" windowWidth="27915" windowHeight="15705" xr2:uid="{F9466112-CF85-4C07-B090-DE232439FD19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Ingredients</t>
   </si>
@@ -59,9 +59,6 @@
     <t>VEG</t>
   </si>
   <si>
-    <t>waffles</t>
-  </si>
-  <si>
     <t>Egg, Sausage</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>No known priority allergens</t>
+  </si>
+  <si>
+    <t>placeholder</t>
   </si>
 </sst>
 </file>
@@ -160,8 +160,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}" name="Table3" displayName="Table3" ref="A1:F5" totalsRowShown="0">
-  <autoFilter ref="A1:F5" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}" name="Table3" displayName="Table3" ref="A1:F4" totalsRowShown="0">
+  <autoFilter ref="A1:F4" xr:uid="{A32FF9D1-238C-44C9-AD02-5D859735230E}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{AA44CCDF-F9E2-4FB6-9AED-85FE3A3C6008}" name="ItemName"/>
     <tableColumn id="2" xr3:uid="{9D7FC130-DF66-4465-8F0B-6015043C6AA1}" name="Ingredients"/>
@@ -474,7 +474,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -509,13 +509,13 @@
     </row>
     <row r="2" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -524,41 +524,44 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
